--- a/notebooks/test_output/incremental_mdi_20hz.xlsx
+++ b/notebooks/test_output/incremental_mdi_20hz.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.853125</v>
+        <v>0.7729166666666667</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>320</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-13 18:44:02</t>
+          <t>2025-10-29 13:20:10</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75625</v>
+        <v>0.7375</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03903123748998999</v>
+        <v>0.03047653924651624</v>
       </c>
       <c r="D2" t="n">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.71875</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -608,23 +608,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.784375</v>
+        <v>0.7729166666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02688226645950821</v>
+        <v>0.02411632688081296</v>
       </c>
       <c r="D3" t="n">
-        <v>0.828125</v>
+        <v>0.8125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.75</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02812500000000007</v>
+        <v>0.03541666666666665</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -633,23 +633,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.784375</v>
+        <v>0.74375</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03336586953759785</v>
+        <v>0.03523236359434949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.71875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.02916666666666667</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -658,23 +658,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.771875</v>
+        <v>0.7541666666666668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03903123748998999</v>
+        <v>0.03131936745494356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8125</v>
+        <v>0.8020833333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.71875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01250000000000007</v>
+        <v>0.01041666666666674</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -683,23 +683,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.809375</v>
+        <v>0.7541666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02296396633859229</v>
+        <v>0.02763853991962834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.84375</v>
+        <v>0.8020833333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03749999999999998</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
     </row>
@@ -708,23 +708,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.821875</v>
+        <v>0.7395833333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02898005779842408</v>
+        <v>0.01473139127471973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01250000000000007</v>
+        <v>-0.01458333333333339</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -733,23 +733,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03563048203434806</v>
+        <v>0.01863389981249823</v>
       </c>
       <c r="D8" t="n">
-        <v>0.890625</v>
+        <v>0.78125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006249999999999978</v>
+        <v>0.02083333333333348</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -758,23 +758,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8375</v>
+        <v>0.7125</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03061862178478973</v>
+        <v>0.0320047739494525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.890625</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E9" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009375000000000022</v>
+        <v>-0.04791666666666672</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.825</v>
+        <v>0.7541666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02688226645950821</v>
+        <v>0.03061862178478974</v>
       </c>
       <c r="D10" t="n">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
       <c r="E10" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01250000000000007</v>
+        <v>0.04166666666666663</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.853125</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03217384419058437</v>
+        <v>0.03644344934278312</v>
       </c>
       <c r="D11" t="n">
-        <v>0.890625</v>
+        <v>0.8125</v>
       </c>
       <c r="E11" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02812500000000007</v>
+        <v>-0.008333333333333304</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -833,23 +833,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.85</v>
+        <v>0.7208333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.03047653924651622</v>
       </c>
       <c r="D12" t="n">
-        <v>0.875</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.003125000000000044</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -858,23 +858,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.81875</v>
+        <v>0.7458333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03903123748998999</v>
+        <v>0.01692508000965827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.890625</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.78125</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03125</v>
+        <v>0.02500000000000002</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -883,23 +883,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.821875</v>
+        <v>0.7145833333333333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0350780380010057</v>
+        <v>0.02429563289518873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.890625</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E14" t="n">
-        <v>0.796875</v>
+        <v>0.6875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003125000000000044</v>
+        <v>-0.03125</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.825</v>
+        <v>0.71875</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01169267933366857</v>
+        <v>0.03294039229342062</v>
       </c>
       <c r="D15" t="n">
-        <v>0.84375</v>
+        <v>0.78125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003124999999999933</v>
+        <v>0.004166666666666652</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -933,23 +933,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.821875</v>
+        <v>0.7020833333333333</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02338535866733713</v>
+        <v>0.04868050602311631</v>
       </c>
       <c r="D16" t="n">
-        <v>0.859375</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.796875</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.003124999999999933</v>
+        <v>-0.01666666666666672</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.821875</v>
+        <v>0.7145833333333333</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007654655446197431</v>
+        <v>0.03761556267764124</v>
       </c>
       <c r="D17" t="n">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8125</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.01250000000000007</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -983,23 +983,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.828125</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03277527650531724</v>
+        <v>0.02517301244498869</v>
       </c>
       <c r="D18" t="n">
-        <v>0.890625</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F18" t="n">
-        <v>0.006249999999999978</v>
+        <v>-0.01041666666666663</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -1008,23 +1008,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.815625</v>
+        <v>0.7041666666666666</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02688226645950821</v>
+        <v>0.03267580654449608</v>
       </c>
       <c r="D19" t="n">
-        <v>0.859375</v>
+        <v>0.75</v>
       </c>
       <c r="E19" t="n">
-        <v>0.78125</v>
+        <v>0.65625</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01249999999999996</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_kurt</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.81875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03775951866748304</v>
+        <v>0.02375365468956537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.875</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>0.765625</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003124999999999933</v>
+        <v>0.004166666666666763</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -1058,23 +1058,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.840625</v>
+        <v>0.70625</v>
       </c>
       <c r="C21" t="n">
-        <v>0.03336586953759785</v>
+        <v>0.02667968432263688</v>
       </c>
       <c r="D21" t="n">
-        <v>0.890625</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F21" t="n">
-        <v>0.02187499999999998</v>
+        <v>-0.002083333333333326</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.821875</v>
+        <v>0.6875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02338535866733714</v>
+        <v>0.05145453764678529</v>
       </c>
       <c r="D22" t="n">
-        <v>0.859375</v>
+        <v>0.78125</v>
       </c>
       <c r="E22" t="n">
-        <v>0.796875</v>
+        <v>0.625</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01874999999999993</v>
+        <v>-0.01875000000000004</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03423265984407288</v>
+        <v>0.04658474953124564</v>
       </c>
       <c r="D23" t="n">
-        <v>0.875</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.78125</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="F23" t="n">
-        <v>0.006249999999999978</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -1133,23 +1133,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8</v>
+        <v>0.6833333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03878023014372143</v>
+        <v>0.02602082499332667</v>
       </c>
       <c r="D24" t="n">
-        <v>0.875</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.765625</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.02812499999999996</v>
+        <v>-0.004166666666666652</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -1158,23 +1158,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.809375</v>
+        <v>0.69375</v>
       </c>
       <c r="C25" t="n">
-        <v>0.03029799910885206</v>
+        <v>0.02517301244498868</v>
       </c>
       <c r="D25" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.765625</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="F25" t="n">
-        <v>0.009374999999999911</v>
+        <v>0.01041666666666663</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -1183,23 +1183,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.809375</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01530931089239486</v>
+        <v>0.02946278254943946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E26" t="n">
-        <v>0.78125</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.01458333333333328</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -1208,23 +1208,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.803125</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01593443597997745</v>
+        <v>0.02946278254943946</v>
       </c>
       <c r="D27" t="n">
-        <v>0.828125</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.78125</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.006249999999999978</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -1233,23 +1233,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.825</v>
+        <v>0.68125</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01822172467139156</v>
+        <v>0.05212498334665337</v>
       </c>
       <c r="D28" t="n">
-        <v>0.859375</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8125</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02187499999999998</v>
+        <v>-0.02708333333333324</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -1258,23 +1258,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.81875</v>
+        <v>0.7041666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01875</v>
+        <v>0.03397813839645853</v>
       </c>
       <c r="D29" t="n">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
       <c r="E29" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.006249999999999978</v>
+        <v>0.0229166666666667</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -1283,23 +1283,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.821875</v>
+        <v>0.7</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03217384419058437</v>
+        <v>0.03047653924651624</v>
       </c>
       <c r="D30" t="n">
-        <v>0.875</v>
+        <v>0.7395833333333334</v>
       </c>
       <c r="E30" t="n">
-        <v>0.78125</v>
+        <v>0.65625</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003125000000000044</v>
+        <v>-0.004166666666666763</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_density</t>
         </is>
       </c>
     </row>
@@ -1308,23 +1308,23 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.825</v>
+        <v>0.6895833333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03186887195995491</v>
+        <v>0.03118047822311619</v>
       </c>
       <c r="D31" t="n">
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="E31" t="n">
-        <v>0.78125</v>
+        <v>0.6354166666666666</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003124999999999933</v>
+        <v>-0.01041666666666663</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="3">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.734375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="6">
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.734375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.765625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="8">
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="9">
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.828125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="10">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.796875</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="11">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.78125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="12">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.796875</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="14">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="15">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="16">
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.71875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="17">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.734375</v>
+        <v>0.8020833333333334</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.71875</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="21">
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="22">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.78125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="23">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.828125</v>
+        <v>0.8020833333333334</v>
       </c>
     </row>
     <row r="24">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="27">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="28">
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.875</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="31">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.828125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="32">
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.828125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="33">
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.78125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="34">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.890625</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="35">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.828125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="36">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="37">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.84375</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="38">
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.890625</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="40">
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="41">
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="42">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="43">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="45">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.828125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.859375</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="49">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0.890625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="50">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="51">
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.84375</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="53">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="54">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="55">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.859375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="56">
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.828125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="58">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.78125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="59">
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.890625</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="60">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.796875</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="61">
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="62">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.796875</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="64">
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.890625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="65">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="66">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="67">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="68">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="69">
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="70">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="71">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.84375</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="72">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.828125</v>
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="74">
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.859375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="75">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.796875</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.828125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8125</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="78">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.828125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="79">
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="80">
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.828125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="81">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="82">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="83">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="84">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.890625</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="85">
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="86">
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="87">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0.78125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="89">
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="90">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.828125</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="91">
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.859375</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="92">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="93">
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.765625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="94">
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.84375</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="95">
@@ -2395,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="96">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="97">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="98">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.84375</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="99">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.890625</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="100">
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.859375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="101">
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
     </row>
     <row r="103">
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="104">
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.828125</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="105">
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.859375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="106">
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.828125</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="107">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.78125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="108">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.796875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="109">
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.875</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="110">
@@ -2560,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.84375</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="111">
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.84375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="112">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.78125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="113">
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.78125</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="115">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.875</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="116">
@@ -2626,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.765625</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="117">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.84375</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="118">
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="119">
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.765625</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="120">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.84375</v>
+        <v>0.6458333333333334</v>
       </c>
     </row>
     <row r="121">
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.796875</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="122">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8125</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="123">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="124">
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="125">
@@ -2725,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="126">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.78125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="127">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.796875</v>
+        <v>0.7604166666666666</v>
       </c>
     </row>
     <row r="128">
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.78125</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="129">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="130">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="131">
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="132">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8125</v>
+        <v>0.7708333333333334</v>
       </c>
     </row>
     <row r="133">
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8125</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="134">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.828125</v>
+        <v>0.7083333333333334</v>
       </c>
     </row>
     <row r="135">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.859375</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="136">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8125</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="137">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="138">
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.796875</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="139">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.84375</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="140">
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
     <row r="141">
@@ -2901,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.828125</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="142">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.796875</v>
+        <v>0.7395833333333334</v>
       </c>
     </row>
     <row r="143">
@@ -2923,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.828125</v>
+        <v>0.65625</v>
       </c>
     </row>
     <row r="144">
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.828125</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="145">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>0.875</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="146">
@@ -2956,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.78125</v>
+        <v>0.7291666666666666</v>
       </c>
     </row>
     <row r="147">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.78125</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="148">
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>0.796875</v>
+        <v>0.71875</v>
       </c>
     </row>
     <row r="149">
@@ -2989,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.859375</v>
+        <v>0.6979166666666666</v>
       </c>
     </row>
     <row r="150">
@@ -3000,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.859375</v>
+        <v>0.6354166666666666</v>
       </c>
     </row>
     <row r="151">
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.828125</v>
+        <v>0.6770833333333334</v>
       </c>
     </row>
   </sheetData>
@@ -3076,14 +3076,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -3092,14 +3092,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3108,14 +3108,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -3124,14 +3124,14 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_harmonic_regularity</t>
         </is>
       </c>
     </row>
@@ -3140,14 +3140,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -3156,14 +3156,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -3172,14 +3172,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -3188,14 +3188,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_regularity</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -3204,14 +3204,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -3220,14 +3220,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3236,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -3252,14 +3252,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -3268,14 +3268,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3284,14 +3284,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -3300,14 +3300,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -3316,14 +3316,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -3332,14 +3332,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_env_kurt</t>
         </is>
       </c>
     </row>
@@ -3348,14 +3348,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -3364,14 +3364,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_std</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
@@ -3380,14 +3380,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -3396,14 +3396,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -3412,14 +3412,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_env_peak_power_std</t>
         </is>
       </c>
     </row>
@@ -3428,14 +3428,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -3444,14 +3444,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -3460,14 +3460,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_mean</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -3476,14 +3476,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -3492,14 +3492,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_count</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -3508,14 +3508,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>load_under_load</t>
+          <t>current_phase_a_env_peak_density</t>
         </is>
       </c>
     </row>
@@ -3524,14 +3524,14 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>frequency_hz</t>
+          <t>current_phase_a_env_peak_sp_mean</t>
         </is>
       </c>
     </row>

--- a/notebooks/test_output/incremental_mdi_20hz.xlsx
+++ b/notebooks/test_output/incremental_mdi_20hz.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7729166666666667</v>
+        <v>0.9472222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
@@ -518,7 +518,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-10-29 13:20:10</t>
+          <t>2025-10-30 19:03:33</t>
         </is>
       </c>
     </row>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7375</v>
+        <v>0.85</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03047653924651624</v>
+        <v>0.02041241452319316</v>
       </c>
       <c r="D2" t="n">
-        <v>0.78125</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -608,23 +608,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7729166666666667</v>
+        <v>0.9472222222222222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02411632688081296</v>
+        <v>0.01360827634879543</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03541666666666665</v>
+        <v>0.09722222222222221</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
     </row>
@@ -633,23 +633,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.74375</v>
+        <v>0.9277777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03523236359434949</v>
+        <v>0.03215510250775064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.02916666666666667</v>
+        <v>-0.01944444444444438</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -658,23 +658,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7541666666666668</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03131936745494356</v>
+        <v>0.02991758226185838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01041666666666674</v>
+        <v>0.01111111111111107</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -683,19 +683,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7541666666666667</v>
+        <v>0.9388888888888889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02763853991962834</v>
+        <v>0.02421610524189263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -708,23 +708,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7395833333333333</v>
+        <v>0.913888888888889</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01473139127471973</v>
+        <v>0.03447131568330792</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.01458333333333339</v>
+        <v>-0.02499999999999991</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -733,23 +733,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7604166666666667</v>
+        <v>0.9055555555555556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01863389981249823</v>
+        <v>0.04063538566202164</v>
       </c>
       <c r="D8" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02083333333333348</v>
+        <v>-0.008333333333333415</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -758,23 +758,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7125</v>
+        <v>0.9</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0320047739494525</v>
+        <v>0.05076574134026963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04791666666666672</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -783,23 +783,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7541666666666667</v>
+        <v>0.9194444444444445</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03061862178478974</v>
+        <v>0.03868996743662256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.875</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04166666666666663</v>
+        <v>0.01944444444444449</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -808,23 +808,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.9027777777777779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03644344934278312</v>
+        <v>0.05692750425533109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.008333333333333304</v>
+        <v>-0.01666666666666661</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -833,23 +833,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7208333333333333</v>
+        <v>0.8972222222222221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03047653924651622</v>
+        <v>0.04697648479246602</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.02500000000000002</v>
+        <v>-0.005555555555555758</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -858,23 +858,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7458333333333333</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01692508000965827</v>
+        <v>0.0408248290463863</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02500000000000002</v>
+        <v>-0.002777777777777657</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -883,23 +883,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7145833333333333</v>
+        <v>0.8916666666666666</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02429563289518873</v>
+        <v>0.0522635770061855</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6875</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03125</v>
+        <v>-0.002777777777777879</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.71875</v>
+        <v>0.8833333333333334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03294039229342062</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.78125</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6875</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004166666666666652</v>
+        <v>-0.008333333333333193</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -933,23 +933,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7020833333333333</v>
+        <v>0.8666666666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04868050602311631</v>
+        <v>0.03986861137335368</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9305555555555556</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01666666666666672</v>
+        <v>-0.01666666666666683</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -958,23 +958,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7145833333333333</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03761556267764124</v>
+        <v>0.05386310952684809</v>
       </c>
       <c r="D17" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01250000000000007</v>
+        <v>0.01388888888888895</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -983,23 +983,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7041666666666667</v>
+        <v>0.875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02517301244498869</v>
+        <v>0.0576012259814659</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01041666666666663</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -1008,23 +1008,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7041666666666666</v>
+        <v>0.8694444444444445</v>
       </c>
       <c r="C19" t="n">
-        <v>0.03267580654449608</v>
+        <v>0.05457467417885695</v>
       </c>
       <c r="D19" t="n">
-        <v>0.75</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.65625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -1033,23 +1033,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02375365468956537</v>
+        <v>0.04212708580028639</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004166666666666763</v>
+        <v>0.01944444444444449</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>load_under_load</t>
         </is>
       </c>
     </row>
@@ -1058,23 +1058,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.70625</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02667968432263688</v>
+        <v>0.04779069592801461</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.002083333333333326</v>
+        <v>-0.008333333333333415</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -1083,23 +1083,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6875</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05145453764678529</v>
+        <v>0.04356774205932813</v>
       </c>
       <c r="D22" t="n">
-        <v>0.78125</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E22" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01875000000000004</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -1108,23 +1108,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6875</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04658474953124564</v>
+        <v>0.05314201797141386</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -1133,19 +1133,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02602082499332667</v>
+        <v>0.04392052305789416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.004166666666666652</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1158,23 +1158,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.69375</v>
+        <v>0.8777777777777779</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02517301244498868</v>
+        <v>0.05226357700618549</v>
       </c>
       <c r="D25" t="n">
-        <v>0.71875</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01041666666666663</v>
+        <v>0.002777777777777879</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -1183,23 +1183,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.9027777777777777</v>
       </c>
       <c r="C26" t="n">
-        <v>0.02946278254943946</v>
+        <v>0.03828902431136173</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01458333333333328</v>
+        <v>0.0249999999999998</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -1208,23 +1208,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02946278254943946</v>
+        <v>0.04859126579037749</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>-0.008333333333333193</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -1233,23 +1233,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.68125</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05212498334665337</v>
+        <v>0.05046083923495819</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.02708333333333324</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -1258,23 +1258,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7041666666666667</v>
+        <v>0.8944444444444445</v>
       </c>
       <c r="C29" t="n">
-        <v>0.03397813839645853</v>
+        <v>0.05931710140017397</v>
       </c>
       <c r="D29" t="n">
-        <v>0.75</v>
+        <v>0.9861111111111112</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8472222222222222</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0229166666666667</v>
+        <v>0.005555555555555536</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
@@ -1283,23 +1283,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7</v>
+        <v>0.8861111111111111</v>
       </c>
       <c r="C30" t="n">
-        <v>0.03047653924651624</v>
+        <v>0.05076574134026962</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>0.65625</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.004166666666666763</v>
+        <v>-0.008333333333333415</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -1308,19 +1308,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6895833333333333</v>
+        <v>0.8805555555555555</v>
       </c>
       <c r="C31" t="n">
-        <v>0.03118047822311619</v>
+        <v>0.04697648479246602</v>
       </c>
       <c r="D31" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.01041666666666663</v>
+        <v>-0.005555555555555536</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="3">
@@ -1383,7 +1383,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.75</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="4">
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5">
@@ -1405,7 +1405,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.78125</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="6">
@@ -1416,7 +1416,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.75</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.78125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="8">
@@ -1438,7 +1438,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="9">
@@ -1449,7 +1449,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="10">
@@ -1460,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="11">
@@ -1471,7 +1471,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="12">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="13">
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0.78125</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="14">
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="15">
@@ -1515,7 +1515,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="16">
@@ -1526,7 +1526,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="17">
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.75</v>
+        <v>0.9861111111111112</v>
       </c>
     </row>
     <row r="18">
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="21">
@@ -1581,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="22">
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="23">
@@ -1603,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8020833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="24">
@@ -1614,7 +1614,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0.75</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="26">
@@ -1636,7 +1636,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="27">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="28">
@@ -1658,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="29">
@@ -1669,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="30">
@@ -1680,7 +1680,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="31">
@@ -1691,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0.75</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="32">
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0.78125</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="33">
@@ -1713,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="34">
@@ -1724,7 +1724,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="35">
@@ -1735,7 +1735,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="36">
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="37">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="38">
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="39">
@@ -1779,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="40">
@@ -1790,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>0.71875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="41">
@@ -1801,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="42">
@@ -1812,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="43">
@@ -1823,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0.78125</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="44">
@@ -1834,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0.78125</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="45">
@@ -1845,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="46">
@@ -1856,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47">
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8125</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="48">
@@ -1878,7 +1878,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="49">
@@ -1889,7 +1889,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0.75</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="50">
@@ -1900,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0.71875</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="51">
@@ -1911,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="52">
@@ -1922,7 +1922,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="53">
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6875</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="54">
@@ -1944,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.71875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="55">
@@ -1955,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="56">
@@ -1966,7 +1966,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>0.75</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="57">
@@ -1977,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="58">
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59">
@@ -1999,7 +1999,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="60">
@@ -2010,7 +2010,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="61">
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="62">
@@ -2032,7 +2032,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="63">
@@ -2043,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64">
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="65">
@@ -2065,7 +2065,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="66">
@@ -2076,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="67">
@@ -2087,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.78125</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="68">
@@ -2098,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="69">
@@ -2109,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="70">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="71">
@@ -2131,7 +2131,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>0.71875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="72">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="73">
@@ -2153,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="74">
@@ -2164,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="75">
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="76">
@@ -2186,7 +2186,7 @@
         <v>5</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="77">
@@ -2197,7 +2197,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.78125</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="78">
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>0.71875</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="79">
@@ -2219,7 +2219,7 @@
         <v>3</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="80">
@@ -2230,7 +2230,7 @@
         <v>4</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81">
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="82">
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="83">
@@ -2263,7 +2263,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="84">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="85">
@@ -2285,7 +2285,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6875</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="86">
@@ -2296,7 +2296,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="87">
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.75</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="88">
@@ -2318,7 +2318,7 @@
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="89">
@@ -2329,7 +2329,7 @@
         <v>3</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="90">
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="C90" t="n">
-        <v>0.65625</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="91">
@@ -2351,7 +2351,7 @@
         <v>5</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="92">
@@ -2362,7 +2362,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="93">
@@ -2373,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6875</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="94">
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="95">
@@ -2395,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="96">
@@ -2406,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="97">
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="98">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="99">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6875</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="100">
@@ -2450,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="101">
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="102">
@@ -2472,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0.78125</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="103">
@@ -2483,7 +2483,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="104">
@@ -2494,7 +2494,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="105">
@@ -2505,7 +2505,7 @@
         <v>4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106">
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="107">
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="108">
@@ -2538,7 +2538,7 @@
         <v>2</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="109">
@@ -2549,7 +2549,7 @@
         <v>3</v>
       </c>
       <c r="C109" t="n">
-        <v>0.65625</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="110">
@@ -2560,7 +2560,7 @@
         <v>4</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="111">
@@ -2571,7 +2571,7 @@
         <v>5</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="112">
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113">
@@ -2593,7 +2593,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="114">
@@ -2604,7 +2604,7 @@
         <v>3</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="115">
@@ -2615,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="116">
@@ -2626,7 +2626,7 @@
         <v>5</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="117">
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="118">
@@ -2648,7 +2648,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="119">
@@ -2659,7 +2659,7 @@
         <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.71875</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="120">
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="121">
@@ -2681,7 +2681,7 @@
         <v>5</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8055555555555556</v>
       </c>
     </row>
     <row r="122">
@@ -2692,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="123">
@@ -2703,7 +2703,7 @@
         <v>2</v>
       </c>
       <c r="C123" t="n">
-        <v>0.71875</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="124">
@@ -2714,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="C124" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="125">
@@ -2725,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126">
@@ -2736,7 +2736,7 @@
         <v>5</v>
       </c>
       <c r="C126" t="n">
-        <v>0.6875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="127">
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7604166666666666</v>
+        <v>0.9305555555555556</v>
       </c>
     </row>
     <row r="128">
@@ -2758,7 +2758,7 @@
         <v>2</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="129">
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="n">
-        <v>0.6875</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="130">
@@ -2780,7 +2780,7 @@
         <v>4</v>
       </c>
       <c r="C130" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="131">
@@ -2791,7 +2791,7 @@
         <v>5</v>
       </c>
       <c r="C131" t="n">
-        <v>0.71875</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="132">
@@ -2802,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7708333333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="133">
@@ -2813,7 +2813,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="n">
-        <v>0.65625</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="134">
@@ -2824,7 +2824,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="135">
@@ -2835,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="136">
@@ -2846,7 +2846,7 @@
         <v>5</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="137">
@@ -2857,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.75</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="138">
@@ -2868,7 +2868,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="139">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6875</v>
+        <v>0.9861111111111112</v>
       </c>
     </row>
     <row r="140">
@@ -2890,7 +2890,7 @@
         <v>4</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="141">
@@ -2901,7 +2901,7 @@
         <v>5</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8472222222222222</v>
       </c>
     </row>
     <row r="142">
@@ -2912,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="143">
@@ -2923,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="C143" t="n">
-        <v>0.65625</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="144">
@@ -2934,7 +2934,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6875</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="145">
@@ -2945,7 +2945,7 @@
         <v>4</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6875</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="146">
@@ -2956,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
     <row r="147">
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0.71875</v>
+        <v>0.9027777777777778</v>
       </c>
     </row>
     <row r="148">
@@ -2978,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>0.71875</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="149">
@@ -2989,7 +2989,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>0.6979166666666666</v>
+        <v>0.9583333333333334</v>
       </c>
     </row>
     <row r="150">
@@ -3000,7 +3000,7 @@
         <v>4</v>
       </c>
       <c r="C150" t="n">
-        <v>0.6354166666666666</v>
+        <v>0.8611111111111112</v>
       </c>
     </row>
     <row r="151">
@@ -3011,7 +3011,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.8194444444444444</v>
       </c>
     </row>
   </sheetData>
@@ -3076,14 +3076,14 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>current_phase_a_env_thd_power_frac</t>
+          <t>current_phase_a_current_phase_b_correlation</t>
         </is>
       </c>
     </row>
@@ -3092,14 +3092,14 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>current_phase_a_env_fundamental_power_ratio</t>
+          <t>current_phase_a_env_thd_power_frac</t>
         </is>
       </c>
     </row>
@@ -3108,14 +3108,14 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>current_phase_a_kurtosis</t>
+          <t>current_phase_a_env_rms</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -3140,14 +3140,14 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
+          <t>current_phase_a_env_fundamental_power_ratio</t>
         </is>
       </c>
     </row>
@@ -3156,14 +3156,14 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>current_phase_a_env_rms</t>
+          <t>current_phase_a_env_entropy</t>
         </is>
       </c>
     </row>
@@ -3172,14 +3172,14 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
+          <t>current_phase_a_env_ptp</t>
         </is>
       </c>
     </row>
@@ -3188,14 +3188,14 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>current_phase_a_env_entropy</t>
+          <t>current_phase_a_form_factor</t>
         </is>
       </c>
     </row>
@@ -3204,14 +3204,14 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>current_phase_a_env_ptp</t>
+          <t>current_phase_a_env_skew</t>
         </is>
       </c>
     </row>
@@ -3220,14 +3220,14 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>current_phase_a_skewness</t>
+          <t>current_phase_a_kurtosis</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3236,14 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>current_phase_a_env_skew</t>
+          <t>current_phase_a_env_spread</t>
         </is>
       </c>
     </row>
@@ -3252,14 +3252,14 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>current_phase_a_form_factor</t>
+          <t>current_phase_a_env_flatness</t>
         </is>
       </c>
     </row>
@@ -3268,14 +3268,14 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
+          <t>current_phase_a_current_phase_b_env_rms_ratio</t>
         </is>
       </c>
     </row>
@@ -3284,14 +3284,14 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>current_phase_a_env_centroid</t>
+          <t>current_phase_a_env_dom_rel_peak_power</t>
         </is>
       </c>
     </row>
@@ -3300,14 +3300,14 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
         <v>16</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_crest_diff</t>
+          <t>current_phase_a_current_phase_b_env_spectral_corr</t>
         </is>
       </c>
     </row>
@@ -3316,14 +3316,14 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18" t="n">
         <v>17</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>current_phase_a_env_flatness</t>
+          <t>current_phase_a_env_centroid</t>
         </is>
       </c>
     </row>
@@ -3332,14 +3332,14 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C19" t="n">
         <v>18</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>current_phase_a_env_kurt</t>
+          <t>current_phase_a_current_phase_b_env_energy_ratio</t>
         </is>
       </c>
     </row>
@@ -3348,14 +3348,14 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
         <v>19</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>current_phase_a_env_dom_rel_peak_power</t>
+          <t>load_under_load</t>
         </is>
       </c>
     </row>
@@ -3364,14 +3364,14 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>20</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_power_mean</t>
+          <t>current_phase_a_env_form_factor</t>
         </is>
       </c>
     </row>
@@ -3380,14 +3380,14 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>21</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>current_phase_a_env_form_factor</t>
+          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
         </is>
       </c>
     </row>
@@ -3396,14 +3396,14 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>22</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
+          <t>current_phase_a_skewness</t>
         </is>
       </c>
     </row>
@@ -3412,7 +3412,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
         <v>23</v>
@@ -3428,14 +3428,14 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
         <v>24</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>current_phase_a_env_spread</t>
+          <t>current_phase_a_current_phase_b_env_crest_diff</t>
         </is>
       </c>
     </row>
@@ -3444,14 +3444,14 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
         <v>25</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>current_phase_a_current_phase_b_env_energy_imbalance</t>
+          <t>current_phase_a_env_peak_freq_cv</t>
         </is>
       </c>
     </row>
@@ -3460,14 +3460,14 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
         <v>26</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>current_phase_a_env_harmonic_ratio</t>
+          <t>current_phase_a_current_phase_b_env_mean_mag_ratio</t>
         </is>
       </c>
     </row>
@@ -3476,14 +3476,14 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
         <v>27</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_freq_cv</t>
+          <t>current_phase_a_env_harmonic_ratio</t>
         </is>
       </c>
     </row>
@@ -3492,14 +3492,14 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_sp_std</t>
+          <t>current_phase_a_env_peak_power_mean</t>
         </is>
       </c>
     </row>
@@ -3508,14 +3508,14 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C30" t="n">
         <v>29</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>current_phase_a_env_peak_density</t>
+          <t>current_phase_a_env_peak_sp_std</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" t="n">
         <v>30</v>
